--- a/Metadata/Status datasett.xlsx
+++ b/Metadata/Status datasett.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xmaland\Documents\GitHub\geonorge\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prosjektrom.statkart.no/p/nynasjonalgeoportal/Referansegruppe/Distribusjonsløyper/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9600" tabRatio="788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9396" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>Dataeier</t>
   </si>
   <si>
-    <t>WFS</t>
-  </si>
-  <si>
     <t>Fiskeridirektoratet</t>
   </si>
   <si>
+    <t>Akvakulturlokaliteter</t>
+  </si>
+  <si>
     <t>Datahotell</t>
   </si>
   <si>
@@ -56,9 +56,6 @@
     <t>Statens kartverk</t>
   </si>
   <si>
-    <t>TurOgFriluftsruter</t>
-  </si>
-  <si>
     <t>DSB</t>
   </si>
   <si>
@@ -263,49 +260,76 @@
     <t>Sti til GML-filer</t>
   </si>
   <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>UniversellUtforming</t>
+  </si>
+  <si>
+    <t>\\nnrifs517\Geonorge\UniversellUtforming\Tilgjengelighet\SOSI</t>
+  </si>
+  <si>
+    <t>Statens vegvesen</t>
+  </si>
+  <si>
+    <t>Samferdsel</t>
+  </si>
+  <si>
+    <t>Trafikkulykker</t>
+  </si>
+  <si>
+    <t>2c47f033-b877-4885-a0ea-50333afd8fab</t>
+  </si>
+  <si>
+    <t>Trafikkmengde</t>
+  </si>
+  <si>
+    <t>af2c4a0a-1978-4e62-b08d-ed1f36bd5023</t>
+  </si>
+  <si>
+    <t>Friluftsområder</t>
+  </si>
+  <si>
+    <t>\\nnrifs517\Geonorge\UniversellUtforming\Tilgjengelighet\GML</t>
+  </si>
+  <si>
+    <t>Tettsted</t>
+  </si>
+  <si>
     <t>Fiskeri</t>
   </si>
   <si>
-    <t>Akvakultur</t>
+    <t>Luftfartshindere</t>
   </si>
   <si>
     <t>Friluftsliv</t>
   </si>
   <si>
-    <t>Metadata</t>
-  </si>
-  <si>
-    <t>Luftfartshindere</t>
-  </si>
-  <si>
-    <t>UniversellUtforming</t>
-  </si>
-  <si>
-    <t>\\nnrifs517\Geonorge\UniversellUtforming\Tilgjengelighet\SOSI</t>
-  </si>
-  <si>
-    <t>Tilgjengelighet_Friluftsområder</t>
-  </si>
-  <si>
-    <t>Tilgjengelighet_Tettsted</t>
-  </si>
-  <si>
-    <t>Trafikkulykker</t>
-  </si>
-  <si>
-    <t>Trafikkmengde</t>
-  </si>
-  <si>
-    <t>Statens vegvesen</t>
-  </si>
-  <si>
-    <t>Samferdsel</t>
-  </si>
-  <si>
-    <t>2c47f033-b877-4885-a0ea-50333afd8fab</t>
-  </si>
-  <si>
-    <t>af2c4a0a-1978-4e62-b08d-ed1f36bd5023</t>
+    <t>TurOgFriluftsrute</t>
+  </si>
+  <si>
+    <t>https://kartkatalog.geonorge.no/Metadata/tilgjengelighet-tettsted/9c075b5d-1fb5-414e-aaf5-c6390db896d1</t>
+  </si>
+  <si>
+    <t>9c075b5d-1fb5-414e-aaf5-c6390db896d1</t>
+  </si>
+  <si>
+    <t>https://kartkatalog.geonorge.no/metadata/kartverket/tilgjengelighet-friluft/638b5ee7-6ab0-4a27-a71a-716bb3a4541d</t>
+  </si>
+  <si>
+    <t>638b5ee7-6ab0-4a27-a71a-716bb3a4541d</t>
+  </si>
+  <si>
+    <t>https://kartkatalog.geonorge.no/metadata/uuid/2c47f033-b877-4885-a0ea-50333afd8fab</t>
+  </si>
+  <si>
+    <t>https://kartkatalog.geonorge.no/metadata/uuid/af2c4a0a-1978-4e62-b08d-ed1f36bd5023</t>
+  </si>
+  <si>
+    <t>Kvalitetsmerknad UML</t>
+  </si>
+  <si>
+    <t>Klar for WFS</t>
   </si>
 </sst>
 </file>
@@ -358,7 +382,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,553 +684,681 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="51.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="3"/>
-    <col min="8" max="8" width="57.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="3"/>
-    <col min="10" max="10" width="57.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="88.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" customWidth="1"/>
-    <col min="14" max="14" width="83.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="131.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="2"/>
+    <col min="8" max="8" width="57.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="2"/>
+    <col min="10" max="10" width="57.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.88671875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="88.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" style="2" customWidth="1"/>
+    <col min="15" max="15" width="83.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="131.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>50</v>
+      <c r="Q11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>51</v>
+      <c r="I12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="C14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1218,74 +1375,44 @@
     <hyperlink ref="J8" r:id="rId10"/>
     <hyperlink ref="J9" r:id="rId11"/>
     <hyperlink ref="H5" r:id="rId12"/>
-    <hyperlink ref="P2" r:id="rId13"/>
-    <hyperlink ref="P4" r:id="rId14"/>
-    <hyperlink ref="P5" r:id="rId15"/>
-    <hyperlink ref="P6" r:id="rId16"/>
-    <hyperlink ref="P7" r:id="rId17"/>
-    <hyperlink ref="P8" r:id="rId18"/>
-    <hyperlink ref="P9" r:id="rId19"/>
-    <hyperlink ref="N3" r:id="rId20"/>
-    <hyperlink ref="L3" r:id="rId21"/>
-    <hyperlink ref="N4" r:id="rId22"/>
-    <hyperlink ref="L4" r:id="rId23"/>
-    <hyperlink ref="N8" r:id="rId24"/>
-    <hyperlink ref="L8" r:id="rId25"/>
-    <hyperlink ref="N7" r:id="rId26"/>
-    <hyperlink ref="L7" r:id="rId27"/>
-    <hyperlink ref="L9" r:id="rId28"/>
-    <hyperlink ref="N9" r:id="rId29"/>
+    <hyperlink ref="Q2" r:id="rId13"/>
+    <hyperlink ref="Q4" r:id="rId14"/>
+    <hyperlink ref="Q5" r:id="rId15"/>
+    <hyperlink ref="Q6" r:id="rId16"/>
+    <hyperlink ref="Q7" r:id="rId17"/>
+    <hyperlink ref="Q8" r:id="rId18"/>
+    <hyperlink ref="Q9" r:id="rId19"/>
+    <hyperlink ref="O3" r:id="rId20"/>
+    <hyperlink ref="M3" r:id="rId21"/>
+    <hyperlink ref="O4" r:id="rId22"/>
+    <hyperlink ref="M4" r:id="rId23"/>
+    <hyperlink ref="O8" r:id="rId24"/>
+    <hyperlink ref="M8" r:id="rId25"/>
+    <hyperlink ref="O7" r:id="rId26"/>
+    <hyperlink ref="M7" r:id="rId27"/>
+    <hyperlink ref="M9" r:id="rId28"/>
+    <hyperlink ref="O9" r:id="rId29"/>
     <hyperlink ref="J5" r:id="rId30"/>
     <hyperlink ref="H6" r:id="rId31"/>
-    <hyperlink ref="L6" r:id="rId32"/>
-    <hyperlink ref="L2" r:id="rId33"/>
-    <hyperlink ref="N5" r:id="rId34"/>
-    <hyperlink ref="L5" r:id="rId35"/>
+    <hyperlink ref="M6" r:id="rId32"/>
+    <hyperlink ref="M2" r:id="rId33"/>
+    <hyperlink ref="O5" r:id="rId34"/>
+    <hyperlink ref="M5" r:id="rId35"/>
     <hyperlink ref="H11" r:id="rId36"/>
     <hyperlink ref="H12" r:id="rId37"/>
+    <hyperlink ref="J12" r:id="rId38"/>
+    <hyperlink ref="J11" r:id="rId39"/>
+    <hyperlink ref="Q12" r:id="rId40"/>
+    <hyperlink ref="Q11" r:id="rId41"/>
+    <hyperlink ref="Q13" r:id="rId42"/>
+    <hyperlink ref="Q14" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <d962e12e53ac488eaa4c752d63b077cd xmlns="0443eabe-a395-4054-aadf-a6c08c9f88fc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Plan</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a2c43972-a036-45d4-8119-c0a4728a7cd6</TermId>
-        </TermInfo>
-      </Terms>
-    </d962e12e53ac488eaa4c752d63b077cd>
-    <TaxCatchAll xmlns="0443eabe-a395-4054-aadf-a6c08c9f88fc">
-      <Value>6</Value>
-      <Value>5</Value>
-    </TaxCatchAll>
-    <b432e6af579246dfb5152a142994d9f2 xmlns="0443eabe-a395-4054-aadf-a6c08c9f88fc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Land - Avdeling - Infrastruktur</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">43d46f1d-96ed-43a1-9174-e227881673de</TermId>
-        </TermInfo>
-      </Terms>
-    </b432e6af579246dfb5152a142994d9f2>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C4FEBE3E823883418C916A9AA14178FC" ma:contentTypeVersion="14" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="744c72275b5d0c72b310b84bcc25e57f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0443eabe-a395-4054-aadf-a6c08c9f88fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dd337beede3c5f45a206333b44d9c95a" ns2:_="">
     <xsd:import namespace="0443eabe-a395-4054-aadf-a6c08c9f88fc"/>
@@ -1433,38 +1560,50 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <d962e12e53ac488eaa4c752d63b077cd xmlns="0443eabe-a395-4054-aadf-a6c08c9f88fc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Plan</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">a2c43972-a036-45d4-8119-c0a4728a7cd6</TermId>
+        </TermInfo>
+      </Terms>
+    </d962e12e53ac488eaa4c752d63b077cd>
+    <TaxCatchAll xmlns="0443eabe-a395-4054-aadf-a6c08c9f88fc">
+      <Value>6</Value>
+      <Value>5</Value>
+    </TaxCatchAll>
+    <b432e6af579246dfb5152a142994d9f2 xmlns="0443eabe-a395-4054-aadf-a6c08c9f88fc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Land - Avdeling - Infrastruktur</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">43d46f1d-96ed-43a1-9174-e227881673de</TermId>
+        </TermInfo>
+      </Terms>
+    </b432e6af579246dfb5152a142994d9f2>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F9BB35-358A-4700-93B1-B1677883F9BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0443eabe-a395-4054-aadf-a6c08c9f88fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92FD7A76-554A-43F5-A20E-57C56A810FC8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA2C9458-FC15-41B1-B180-F260EACA7773}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA2C9458-FC15-41B1-B180-F260EACA7773}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92FD7A76-554A-43F5-A20E-57C56A810FC8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0443eabe-a395-4054-aadf-a6c08c9f88fc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F9BB35-358A-4700-93B1-B1677883F9BF}"/>
 </file>